--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr4_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr4_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -190,57 +241,57 @@
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="13.64453125" customWidth="true"/>
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
-    <col min="4" max="4" width="14.24609375" customWidth="true"/>
+    <col min="4" max="4" width="15.64453125" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.77734375" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.24609375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.20666081807168779</v>
+        <v>0.084495522222524294</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.16371386322136555</v>
+        <v>0.24558823178915448</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.012570791730289344</v>
+        <v>0.1232315930075218</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0097850116964284476</v>
+        <v>0.00085603867194212579</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.021847851805517807</v>
+        <v>0.0067299272148173273</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0031320383447960721</v>
+        <v>0.013826063441293054</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00079192558054240513</v>
+        <v>-0.0022484857818651197</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.0014554357245304241</v>
+        <v>-0.00050086909632624118</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00037202334219010869</v>
+        <v>0.019198442109247232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.37789207598166918</v>
+        <v>0.53112229876576733</v>
       </c>
       <c r="C4" s="0">
-        <v>0.21549273939801586</v>
+        <v>0.14126037339871611</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.00028525431399876387</v>
+        <v>-0.00011359290670087254</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0018695540847580097</v>
+        <v>-3.1943819736848092e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.0001681441517547517</v>
+        <v>-0.0017237540287851098</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00056226414830472195</v>
+        <v>0.085955787734916911</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00029822992151971932</v>
+        <v>0.06340699436369357</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00014793184297484663</v>
+        <v>-0.0032485472032540985</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.42248048324600351</v>
+        <v>0.50706722219268607</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.031622569254543556</v>
+        <v>0.00016365178291100416</v>
       </c>
       <c r="E5" s="0">
-        <v>0.011950040488277032</v>
+        <v>0.013489427126714531</v>
       </c>
       <c r="F5" s="0">
-        <v>0.034785468896188249</v>
+        <v>-0.019908257800860866</v>
       </c>
       <c r="G5" s="0">
-        <v>0.0053633658233406562</v>
+        <v>-0.0048478338308531443</v>
       </c>
       <c r="H5" s="0">
-        <v>6.6641596935806437e-05</v>
+        <v>-0.0023081088075249433</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.0030205030935266568</v>
+        <v>0.0045201379975708068</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.027065962807662824</v>
+        <v>-0.015164093041038607</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.32719704957025891</v>
+        <v>0.38538667896126755</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.088196632176316542</v>
+        <v>-0.067180841035158062</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00061271941403290373</v>
+        <v>6.8071724188183792e-05</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0068249971545870196</v>
+        <v>-0.0011364902590309705</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0018628365603451894</v>
+        <v>-0.0075564526926717229</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.016818692784715324</v>
+        <v>-0.04603193863014432</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00043133815632212524</v>
+        <v>0.00015710766139831467</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.23369509081579026</v>
+        <v>0.4499619135115851</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>0.030784333082685092</v>
+        <v>0.11917181044606817</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.014298418063131384</v>
+        <v>-0.025250252677014837</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.027532193385457659</v>
+        <v>-0.004034887095550806</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.00026667775270413372</v>
+        <v>-0.0017518946189426642</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.0014273871880604967</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.0022972038698296769</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.078464411577970405</v>
+        <v>-0.023559541504242332</v>
       </c>
     </row>
     <row r="8">
